--- a/api_gm_locations.xlsx
+++ b/api_gm_locations.xlsx
@@ -2267,15 +2267,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2500,36 +2500,36 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="39.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -2541,10 +2541,10 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2558,10 +2558,10 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2575,10 +2575,10 @@
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2606,10 +2606,10 @@
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2623,10 +2623,10 @@
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2640,10 +2640,10 @@
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2657,10 +2657,10 @@
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2674,10 +2674,10 @@
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2691,10 +2691,10 @@
       <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2708,10 +2708,10 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2725,10 +2725,10 @@
       <c r="C13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2742,10 +2742,10 @@
       <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2759,10 +2759,10 @@
       <c r="C15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2776,10 +2776,10 @@
       <c r="C16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2793,10 +2793,10 @@
       <c r="C17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2810,10 +2810,10 @@
       <c r="C18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2827,10 +2827,10 @@
       <c r="C19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2844,10 +2844,10 @@
       <c r="C20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2861,10 +2861,10 @@
       <c r="C21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2878,10 +2878,10 @@
       <c r="C22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2895,10 +2895,10 @@
       <c r="C23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2912,10 +2912,10 @@
       <c r="C24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2929,10 +2929,10 @@
       <c r="C25" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       <c r="C26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2960,10 +2960,10 @@
       <c r="C27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2977,10 +2977,10 @@
       <c r="C28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2994,10 +2994,10 @@
       <c r="C29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3011,10 +3011,10 @@
       <c r="C30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3028,10 +3028,10 @@
       <c r="C31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3045,10 +3045,10 @@
       <c r="C32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3062,10 +3062,10 @@
       <c r="C33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3079,10 +3079,10 @@
       <c r="C34" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3096,10 +3096,10 @@
       <c r="C35" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3113,10 +3113,10 @@
       <c r="C36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3130,10 +3130,10 @@
       <c r="C37" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3147,10 +3147,10 @@
       <c r="C38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3164,10 +3164,10 @@
       <c r="C39" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3181,10 +3181,10 @@
       <c r="C40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3198,10 +3198,10 @@
       <c r="C41" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3215,10 +3215,10 @@
       <c r="C42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3232,10 +3232,10 @@
       <c r="C43" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3249,10 +3249,10 @@
       <c r="C44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       <c r="C45" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3280,10 +3280,10 @@
       <c r="C46" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3297,10 +3297,10 @@
       <c r="C47" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3314,10 +3314,10 @@
       <c r="C48" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3331,10 +3331,10 @@
       <c r="C49" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3348,10 +3348,10 @@
       <c r="C50" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3365,10 +3365,10 @@
       <c r="C51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3382,10 +3382,10 @@
       <c r="C52" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3399,10 +3399,10 @@
       <c r="C53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3416,10 +3416,10 @@
       <c r="C54" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3433,10 +3433,10 @@
       <c r="C55" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3450,10 +3450,10 @@
       <c r="C56" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3467,10 +3467,10 @@
       <c r="C57" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3484,10 +3484,10 @@
       <c r="C58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3501,10 +3501,10 @@
       <c r="C59" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3518,10 +3518,10 @@
       <c r="C60" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3535,10 +3535,10 @@
       <c r="C61" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3552,10 +3552,10 @@
       <c r="C62" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3569,10 +3569,10 @@
       <c r="C63" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3586,10 +3586,10 @@
       <c r="C64" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3603,10 +3603,10 @@
       <c r="C65" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3620,10 +3620,10 @@
       <c r="C66" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3637,10 +3637,10 @@
       <c r="C67" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3654,10 +3654,10 @@
       <c r="C68" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3671,10 +3671,10 @@
       <c r="C69" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3688,10 +3688,10 @@
       <c r="C70" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3705,10 +3705,10 @@
       <c r="C71" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3722,10 +3722,10 @@
       <c r="C72" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3739,10 +3739,10 @@
       <c r="C73" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3756,10 +3756,10 @@
       <c r="C74" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3773,10 +3773,10 @@
       <c r="C75" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3790,10 +3790,10 @@
       <c r="C76" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3807,10 +3807,10 @@
       <c r="C77" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3824,10 +3824,10 @@
       <c r="C78" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3841,10 +3841,10 @@
       <c r="C79" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3858,10 +3858,10 @@
       <c r="C80" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3875,10 +3875,10 @@
       <c r="C81" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3892,10 +3892,10 @@
       <c r="C82" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3909,10 +3909,10 @@
       <c r="C83" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3926,10 +3926,10 @@
       <c r="C84" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3943,10 +3943,10 @@
       <c r="C85" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3960,10 +3960,10 @@
       <c r="C86" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3977,10 +3977,10 @@
       <c r="C87" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3994,10 +3994,10 @@
       <c r="C88" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4011,10 +4011,10 @@
       <c r="C89" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       <c r="C90" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4042,10 +4042,10 @@
       <c r="C91" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="2" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4059,10 +4059,10 @@
       <c r="C92" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4076,10 +4076,10 @@
       <c r="C93" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4093,10 +4093,10 @@
       <c r="C94" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4110,10 +4110,10 @@
       <c r="C95" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4127,10 +4127,10 @@
       <c r="C96" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4144,10 +4144,10 @@
       <c r="C97" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4161,10 +4161,10 @@
       <c r="C98" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4178,10 +4178,10 @@
       <c r="C99" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4195,10 +4195,10 @@
       <c r="C100" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4212,10 +4212,10 @@
       <c r="C101" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="2" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4229,10 +4229,10 @@
       <c r="C102" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4246,10 +4246,10 @@
       <c r="C103" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4263,10 +4263,10 @@
       <c r="C104" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4280,10 +4280,10 @@
       <c r="C105" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4297,10 +4297,10 @@
       <c r="C106" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4314,10 +4314,10 @@
       <c r="C107" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4331,10 +4331,10 @@
       <c r="C108" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4348,10 +4348,10 @@
       <c r="C109" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4365,10 +4365,10 @@
       <c r="C110" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4382,10 +4382,10 @@
       <c r="C111" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4399,10 +4399,10 @@
       <c r="C112" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4416,10 +4416,10 @@
       <c r="C113" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4433,10 +4433,10 @@
       <c r="C114" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4450,10 +4450,10 @@
       <c r="C115" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4467,10 +4467,10 @@
       <c r="C116" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4484,10 +4484,10 @@
       <c r="C117" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4501,10 +4501,10 @@
       <c r="C118" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4518,10 +4518,10 @@
       <c r="C119" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="2" t="s">
         <v>449</v>
       </c>
     </row>
@@ -4535,10 +4535,10 @@
       <c r="C120" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4552,10 +4552,10 @@
       <c r="C121" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4569,10 +4569,10 @@
       <c r="C122" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4586,10 +4586,10 @@
       <c r="C123" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4603,10 +4603,10 @@
       <c r="C124" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4620,10 +4620,10 @@
       <c r="C125" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4637,10 +4637,10 @@
       <c r="C126" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4654,10 +4654,10 @@
       <c r="C127" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4671,10 +4671,10 @@
       <c r="C128" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4688,10 +4688,10 @@
       <c r="C129" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4705,10 +4705,10 @@
       <c r="C130" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4722,10 +4722,10 @@
       <c r="C131" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="2" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4739,10 +4739,10 @@
       <c r="C132" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4756,10 +4756,10 @@
       <c r="C133" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4773,10 +4773,10 @@
       <c r="C134" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4790,10 +4790,10 @@
       <c r="C135" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4807,10 +4807,10 @@
       <c r="C136" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4824,10 +4824,10 @@
       <c r="C137" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4841,10 +4841,10 @@
       <c r="C138" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4858,10 +4858,10 @@
       <c r="C139" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4875,10 +4875,10 @@
       <c r="C140" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4892,10 +4892,10 @@
       <c r="C141" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4909,10 +4909,10 @@
       <c r="C142" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4926,10 +4926,10 @@
       <c r="C143" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4943,10 +4943,10 @@
       <c r="C144" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4960,10 +4960,10 @@
       <c r="C145" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4977,10 +4977,10 @@
       <c r="C146" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4994,10 +4994,10 @@
       <c r="C147" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       <c r="C148" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" s="2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5025,10 +5025,10 @@
       <c r="C149" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5042,10 +5042,10 @@
       <c r="C150" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5059,10 +5059,10 @@
       <c r="C151" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5076,10 +5076,10 @@
       <c r="C152" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5093,10 +5093,10 @@
       <c r="C153" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5110,10 +5110,10 @@
       <c r="C154" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5127,10 +5127,10 @@
       <c r="C155" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5144,10 +5144,10 @@
       <c r="C156" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5161,10 +5161,10 @@
       <c r="C157" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5178,10 +5178,10 @@
       <c r="C158" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5195,10 +5195,10 @@
       <c r="C159" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="2" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5212,10 +5212,10 @@
       <c r="C160" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="2" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5229,10 +5229,10 @@
       <c r="C161" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5246,10 +5246,10 @@
       <c r="C162" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5263,10 +5263,10 @@
       <c r="C163" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5280,10 +5280,10 @@
       <c r="C164" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5297,10 +5297,10 @@
       <c r="C165" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5314,10 +5314,10 @@
       <c r="C166" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5331,10 +5331,10 @@
       <c r="C167" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5348,10 +5348,10 @@
       <c r="C168" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5365,10 +5365,10 @@
       <c r="C169" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5382,10 +5382,10 @@
       <c r="C170" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5399,10 +5399,10 @@
       <c r="C171" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5416,10 +5416,10 @@
       <c r="C172" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       <c r="C173" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E173" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5447,10 +5447,10 @@
       <c r="C174" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E174" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5464,10 +5464,10 @@
       <c r="C175" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E175" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5481,10 +5481,10 @@
       <c r="C176" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E176" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5498,10 +5498,10 @@
       <c r="C177" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E177" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5515,10 +5515,10 @@
       <c r="C178" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E178" s="2" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5532,10 +5532,10 @@
       <c r="C179" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5549,10 +5549,10 @@
       <c r="C180" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5566,10 +5566,10 @@
       <c r="C181" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5583,10 +5583,10 @@
       <c r="C182" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5600,10 +5600,10 @@
       <c r="C183" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E183" s="2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5617,10 +5617,10 @@
       <c r="C184" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E184" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5634,10 +5634,10 @@
       <c r="C185" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E185" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5651,10 +5651,10 @@
       <c r="C186" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5668,10 +5668,10 @@
       <c r="C187" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" s="2" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5685,10 +5685,10 @@
       <c r="C188" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E188" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5702,10 +5702,10 @@
       <c r="C189" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5719,10 +5719,10 @@
       <c r="C190" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5736,10 +5736,10 @@
       <c r="C191" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5753,10 +5753,10 @@
       <c r="C192" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5770,10 +5770,10 @@
       <c r="C193" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5787,10 +5787,10 @@
       <c r="C194" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="E194" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5804,10 +5804,10 @@
       <c r="C195" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E195" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       <c r="C196" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E196" s="2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5835,10 +5835,10 @@
       <c r="C197" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="E197" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5852,10 +5852,10 @@
       <c r="C198" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="E198" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5869,10 +5869,10 @@
       <c r="C199" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E199" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6094,11 +6094,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>719</v>
       </c>
     </row>
@@ -6113,13 +6113,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <f aca="false">A4-A3</f>
         <v>71</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <f aca="false">B6+1</f>
         <v>72</v>
       </c>
